--- a/biology/Botanique/Aspergillus/Aspergillus.xlsx
+++ b/biology/Botanique/Aspergillus/Aspergillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspergillus est un genre de « champignons imparfaits » (deutéromycètes). Les formes parfaites (téléomorphes) de quelques espèces d'Aspergillus sont connues, et appartiennent à la classe des Ascomycètes (ordre des Eurotiales, famille des Trichocomacées). Pour plusieurs espèces d'Aspergillus, le stade parfait demeure inconnu. 
 Les Aspergillus sont des champignons filamenteux, de type moisissure, dont la colonie se présente sous forme duveteuse. Le thalle, hyalin, présente un mycélium cloisonné portant de nombreux conidiophores dressés, terminés en vésicule. Le genre Aspergillus se distingue des Penicillium par l'aspect des conidiophores qui sont terminés par une tête renflée, alors qu'ils sont divisés en articles chez les Penicillium donnant ainsi l'aspect de petits pinceaux.
@@ -513,7 +525,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'identification des Aspergillus est plus facile que celle des Penicillium. Les colonies mycéliennes sont poudreuses et généralement peu développées (2-3 cm de diamètre après une semaine de culture en boite de Petri). Leur teinte diffère selon les espèces : Aspergillus candidatus est blanc, Aspergillus ochraceus est ocre (d'où son nom), Aspergillus niger est noir et les autres comme Aspergillus glaucus et Aspergillus flavus sont dans les tons verts.
 Les conidiophores sont érigés et renflés à leur extrémité en tête sphérique ou ovoïde. Une ou deux rangées de stérigmates (selon les espèces) prennent naissance sur cette sphère. C'est à partir de ces stérigmates que les spores sont formés en de très longues chaines au point de faire plier les conidiophores.
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nom de genre Aspergillus est un nom scientifique en latin scientifique dérivé de la racine latine aspergillum « goupillon, aspersoir »[1] et du suffixe taxonomique -us.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nom de genre Aspergillus est un nom scientifique en latin scientifique dérivé de la racine latine aspergillum « goupillon, aspersoir » et du suffixe taxonomique -us.  
 Vue au microscope, l'Aspergillus, ressemble à un goupillon aspergeant l’eau bénite (les conidies).
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On répertorie plus de 185 espèces, dont une vingtaine sont impliqués dans des pathologies humaines. Le génome d'Aspergillus fumigatus a été séquencé[2]. Sa taille est de 30 Mb, il possède 11 000 gènes, dont 50 % sans fonction connue ni homologie dans les banques de données publiques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On répertorie plus de 185 espèces, dont une vingtaine sont impliqués dans des pathologies humaines. Le génome d'Aspergillus fumigatus a été séquencé. Sa taille est de 30 Mb, il possède 11 000 gènes, dont 50 % sans fonction connue ni homologie dans les banques de données publiques.
 Aspergillus awamori
 Aspergillus caesiellus
 Aspergillus candidus
@@ -632,7 +650,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Aspergillus sont très utilisés dans l'industrie agroalimentaire et dans l'industrie des biotechnologies, notamment pour la fermentation, la production d'enzymes, la production d'acides organiques, et la production d'antimicrobiens.
 Certaines espèces d'Aspergillus peuvent être pathogènes pour l'Homme (Aspergillus fumigatus), les animaux et les plantes. Les mycoses provoqués par Aspergillus sont appelées des aspergilloses. Certaines espèces peuvent aussi produire des mycotoxines comme les aflatoxines (par Aspergillus flavus) ou l'ochratoxine (Aspergillus ochraceus, Aspergillus carbonarius). Aspergillus fumigatus peut produire un grand nombre de composés plus ou moins toxiques.
@@ -675,11 +695,13 @@
           <t>Pathologies végétales et dégâts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, les Aspergillus n'attaquent pas les plantes pendant leur pleine croissance. Pour la plupart, ce sont des saprophytes classiques, qui, à la faveur de blessures pénètrent dans certains fruits ou sur les porte-graine, surtout par temps chaud et humide.
 Lorsque les graines sont récoltées humides (ou qu'elles s'humidifient lors du stockage), les Aspergillus évoluent rapidement et se transforment en parasites ce qui entraîne une diminution de la faculté germinative.
-Le 7 juillet 2016, la présence d'Aspergillus a été découverte dans des salles d'opération de l'hôpital Pompidou de Paris. En attendant d'en trouver l'origine, des blocs ont été fermés, de même que certaines urgences[3].
+Le 7 juillet 2016, la présence d'Aspergillus a été découverte dans des salles d'opération de l'hôpital Pompidou de Paris. En attendant d'en trouver l'origine, des blocs ont été fermés, de même que certaines urgences.
 </t>
         </is>
       </c>
@@ -708,7 +730,9 @@
           <t>Localisation sur la graine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspergillus est localisé sous forme de spores à la surface de la graine ou sous forme de mycélium dans les téguments ou au niveau de l'embryon.
 </t>
@@ -739,7 +763,9 @@
           <t>Fréquence d'apparition</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taux d'infection est très variable, il dépend essentiellement des conditions climatiques et des conditions de récolte. Durant les années sèches, les semences de céréales peuvent ne présenter aucune attaque d'Aspergillus. En revanche, les Allium et les cucurbitacées sont souvent porteurs d' Aspergillus (parfois jusqu'à 100 % de semences infectées). Il est donc impératif de surveiller le taux d'humidité des lots de semences avant et pendant le stockage.
 </t>
@@ -770,9 +796,11 @@
           <t>Aspergillose</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Les symptômes d'une aspergillose sont assez variés[4] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les symptômes d'une aspergillose sont assez variés :
 douleurs thoraciques ;
 difficultés respiratoires ;
 troubles de la vision ;
